--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H2">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I2">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J2">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N2">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O2">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P2">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q2">
-        <v>1.05870157954</v>
+        <v>0.4773995118386667</v>
       </c>
       <c r="R2">
-        <v>9.52831421586</v>
+        <v>4.296595606548</v>
       </c>
       <c r="S2">
-        <v>0.0009044907017322427</v>
+        <v>0.0004433307869096563</v>
       </c>
       <c r="T2">
-        <v>0.001091012550601482</v>
+        <v>0.0005240158187313197</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H3">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I3">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J3">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>138.461282</v>
       </c>
       <c r="O3">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P3">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q3">
-        <v>32.33578626067333</v>
+        <v>21.81863651003867</v>
       </c>
       <c r="R3">
-        <v>291.02207634606</v>
+        <v>196.367728590348</v>
       </c>
       <c r="S3">
-        <v>0.02762574324172452</v>
+        <v>0.02026159024762486</v>
       </c>
       <c r="T3">
-        <v>0.03332265609662167</v>
+        <v>0.02394914613627165</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,46 +664,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H4">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I4">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J4">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N4">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O4">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P4">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q4">
-        <v>13.808756517895</v>
+        <v>0.004403869628666667</v>
       </c>
       <c r="R4">
-        <v>82.85253910736999</v>
+        <v>0.039634826658</v>
       </c>
       <c r="S4">
-        <v>0.01179736775149359</v>
+        <v>4.0895956939816E-06</v>
       </c>
       <c r="T4">
-        <v>0.009486794617339573</v>
+        <v>4.833891304504777E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,46 +726,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H5">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I5">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J5">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N5">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O5">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P5">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q5">
-        <v>0.02124109398</v>
+        <v>12.973293860023</v>
       </c>
       <c r="R5">
-        <v>0.19116984582</v>
+        <v>77.83976316013801</v>
       </c>
       <c r="S5">
-        <v>1.814710809053329E-05</v>
+        <v>0.0120474789628982</v>
       </c>
       <c r="T5">
-        <v>2.188936010726903E-05</v>
+        <v>0.009493392201036795</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>35.59684</v>
       </c>
       <c r="I6">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J6">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N6">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O6">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P6">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q6">
-        <v>17.93029442658667</v>
+        <v>11.98261619120889</v>
       </c>
       <c r="R6">
-        <v>161.37264983928</v>
+        <v>107.84354572088</v>
       </c>
       <c r="S6">
-        <v>0.01531856086888586</v>
+        <v>0.01112749915647225</v>
       </c>
       <c r="T6">
-        <v>0.01847751683140543</v>
+        <v>0.01315267460118698</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>35.59684</v>
       </c>
       <c r="I7">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J7">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>138.461282</v>
       </c>
       <c r="O7">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P7">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q7">
         <v>547.6426779498755</v>
@@ -886,10 +886,10 @@
         <v>4928.784101548879</v>
       </c>
       <c r="S7">
-        <v>0.4678728356036164</v>
+        <v>0.5085611806048047</v>
       </c>
       <c r="T7">
-        <v>0.5643564215214676</v>
+        <v>0.6011179717232238</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>35.59684</v>
       </c>
       <c r="I8">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J8">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N8">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O8">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P8">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q8">
-        <v>233.8667239341267</v>
+        <v>0.1105360986088889</v>
       </c>
       <c r="R8">
-        <v>1403.20034360476</v>
+        <v>0.99482488748</v>
       </c>
       <c r="S8">
-        <v>0.199801607299866</v>
+        <v>0.0001026478962859991</v>
       </c>
       <c r="T8">
-        <v>0.1606694690371238</v>
+        <v>0.000121329542187461</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>35.59684</v>
       </c>
       <c r="I9">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J9">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N9">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O9">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P9">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q9">
-        <v>0.35974166504</v>
+        <v>325.6266443627134</v>
       </c>
       <c r="R9">
-        <v>3.23767498536</v>
+        <v>1953.75986617628</v>
       </c>
       <c r="S9">
-        <v>0.0003073415562445199</v>
+        <v>0.3023889067839221</v>
       </c>
       <c r="T9">
-        <v>0.0003707207763904971</v>
+        <v>0.2382819258853421</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H10">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I10">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J10">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N10">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O10">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P10">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q10">
-        <v>0.6908581503853333</v>
+        <v>0.3826564038133333</v>
       </c>
       <c r="R10">
-        <v>6.217723353468</v>
+        <v>3.44390763432</v>
       </c>
       <c r="S10">
-        <v>0.0005902274874388815</v>
+        <v>0.0003553488439173642</v>
       </c>
       <c r="T10">
-        <v>0.0007119427488558377</v>
+        <v>0.000420021394585736</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H11">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I11">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J11">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>138.461282</v>
       </c>
       <c r="O11">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P11">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q11">
-        <v>21.10079168580311</v>
+        <v>17.48858299181333</v>
       </c>
       <c r="R11">
-        <v>189.907125172228</v>
+        <v>157.39724692632</v>
       </c>
       <c r="S11">
-        <v>0.01802724228227793</v>
+        <v>0.01624054291516656</v>
       </c>
       <c r="T11">
-        <v>0.02174477586671892</v>
+        <v>0.01919627881396472</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1160,46 +1160,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H12">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I12">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J12">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N12">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O12">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P12">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q12">
-        <v>9.010935821234332</v>
+        <v>0.003529892413333333</v>
       </c>
       <c r="R12">
-        <v>54.065614927406</v>
+        <v>0.03176903172</v>
       </c>
       <c r="S12">
-        <v>0.007698399456203425</v>
+        <v>3.277988231036023E-06</v>
       </c>
       <c r="T12">
-        <v>0.006190629643972424</v>
+        <v>3.874573427782302E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1222,46 +1222,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H13">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I13">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J13">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N13">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O13">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P13">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q13">
-        <v>0.013860924724</v>
+        <v>10.39865741582</v>
       </c>
       <c r="R13">
-        <v>0.124748322516</v>
+        <v>62.39194449492</v>
       </c>
       <c r="S13">
-        <v>1.184193711670463E-05</v>
+        <v>0.009656576642075285</v>
       </c>
       <c r="T13">
-        <v>1.428395227614282E-05</v>
+        <v>0.007609365383821191</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H14">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I14">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J14">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N14">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O14">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P14">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q14">
-        <v>6.410357899517</v>
+        <v>1.563624832258</v>
       </c>
       <c r="R14">
-        <v>38.462147397102</v>
+        <v>9.381748993548001</v>
       </c>
       <c r="S14">
-        <v>0.005476622711197052</v>
+        <v>0.001452039665157179</v>
       </c>
       <c r="T14">
-        <v>0.004403998921810847</v>
+        <v>0.001144204698364803</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H15">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I15">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J15">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>138.461282</v>
       </c>
       <c r="O15">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P15">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q15">
-        <v>195.7907373513737</v>
+        <v>71.462498404558</v>
       </c>
       <c r="R15">
-        <v>1174.744424108242</v>
+        <v>428.774990427348</v>
       </c>
       <c r="S15">
-        <v>0.167271783514824</v>
+        <v>0.06636271061569345</v>
       </c>
       <c r="T15">
-        <v>0.1345107729883489</v>
+        <v>0.05229369906674051</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H16">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I16">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J16">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N16">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O16">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P16">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q16">
-        <v>83.61097512053973</v>
+        <v>0.014423977693</v>
       </c>
       <c r="R16">
-        <v>334.4439004821589</v>
+        <v>0.08654386615800001</v>
       </c>
       <c r="S16">
-        <v>0.07143216844179345</v>
+        <v>1.339463745234415E-05</v>
       </c>
       <c r="T16">
-        <v>0.03829454871364307</v>
+        <v>1.055495071769014E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H17">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I17">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J17">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N17">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O17">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P17">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q17">
-        <v>0.128613215679</v>
+        <v>42.49138076740951</v>
       </c>
       <c r="R17">
-        <v>0.7716792940739999</v>
+        <v>169.965523069638</v>
       </c>
       <c r="S17">
-        <v>0.0001098793653940551</v>
+        <v>0.03945906270398439</v>
       </c>
       <c r="T17">
-        <v>8.835894532871859E-05</v>
+        <v>0.02072911460219788</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H18">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I18">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J18">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N18">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O18">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P18">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q18">
-        <v>0.150509976628</v>
+        <v>0.16789943444</v>
       </c>
       <c r="R18">
-        <v>1.354589789652</v>
+        <v>1.51109490996</v>
       </c>
       <c r="S18">
-        <v>0.0001285866357516091</v>
+        <v>0.0001559176047442758</v>
       </c>
       <c r="T18">
-        <v>0.0001551034556529436</v>
+        <v>0.0001842941968326414</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H19">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I19">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J19">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1618,22 +1618,22 @@
         <v>138.461282</v>
       </c>
       <c r="O19">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P19">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q19">
-        <v>4.597006869921334</v>
+        <v>7.673524248439999</v>
       </c>
       <c r="R19">
-        <v>41.373061829292</v>
+        <v>69.06171823595999</v>
       </c>
       <c r="S19">
-        <v>0.003927405087512661</v>
+        <v>0.007125917515770065</v>
       </c>
       <c r="T19">
-        <v>0.004737304909344302</v>
+        <v>0.008422815675102327</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1656,46 +1656,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H20">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I20">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J20">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N20">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O20">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P20">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q20">
-        <v>1.963117521439</v>
+        <v>0.00154882274</v>
       </c>
       <c r="R20">
-        <v>11.778705128634</v>
+        <v>0.01393940466</v>
       </c>
       <c r="S20">
-        <v>0.001677169070929997</v>
+        <v>1.438293896579883E-06</v>
       </c>
       <c r="T20">
-        <v>0.001348687169004519</v>
+        <v>1.700059585408755E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,7 +1709,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1718,46 +1718,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H21">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I21">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J21">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N21">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O21">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P21">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q21">
-        <v>0.003019733436</v>
+        <v>4.56265381071</v>
       </c>
       <c r="R21">
-        <v>0.027177600924</v>
+        <v>27.37592286426</v>
       </c>
       <c r="S21">
-        <v>2.579877906443381E-06</v>
+        <v>0.004237048539299687</v>
       </c>
       <c r="T21">
-        <v>3.111893985818373E-06</v>
+        <v>0.003338786785374515</v>
       </c>
     </row>
   </sheetData>
